--- a/Codes/Multiple ANN models/Best_Models_from_C1_and_C2/All_Model_details_C2onC1.xlsx
+++ b/Codes/Multiple ANN models/Best_Models_from_C1_and_C2/All_Model_details_C2onC1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Model</t>
   </si>
@@ -52,6 +52,9 @@
     <t>%error(Ksym_Lam)</t>
   </si>
   <si>
+    <t>ANN(2HL-14,15 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-14,18 Nodes)</t>
   </si>
   <si>
@@ -61,9 +64,27 @@
     <t>ANN(2HL-14,20 Nodes)</t>
   </si>
   <si>
+    <t>ANN(2HL-15,14 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-15,15 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-15,18 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-15,19 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-16,12 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-16,14 Nodes)</t>
   </si>
   <si>
+    <t>ANN(2HL-16,15 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-16,17 Nodes)</t>
   </si>
   <si>
@@ -73,6 +94,15 @@
     <t>ANN(2HL-16,19 Nodes)</t>
   </si>
   <si>
+    <t>ANN(2HL-16,20 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-17,13 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-17,14 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-17,15 Nodes)</t>
   </si>
   <si>
@@ -88,6 +118,15 @@
     <t>ANN(2HL-17,19 Nodes)</t>
   </si>
   <si>
+    <t>ANN(2HL-18,10 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-18,11 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-18,12 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-18,13 Nodes)</t>
   </si>
   <si>
@@ -103,6 +142,9 @@
     <t>ANN(2HL-18,17 Nodes)</t>
   </si>
   <si>
+    <t>ANN(2HL-18,18 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-18,19 Nodes)</t>
   </si>
   <si>
@@ -118,9 +160,15 @@
     <t>ANN(2HL-19,14 Nodes)</t>
   </si>
   <si>
+    <t>ANN(2HL-19,15 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-19,16 Nodes)</t>
   </si>
   <si>
+    <t>ANN(2HL-19,17 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-19,18 Nodes)</t>
   </si>
   <si>
@@ -136,10 +184,16 @@
     <t>ANN(2HL-20,13 Nodes)</t>
   </si>
   <si>
+    <t>ANN(2HL-20,14 Nodes)</t>
+  </si>
+  <si>
     <t>ANN(2HL-20,15 Nodes)</t>
   </si>
   <si>
     <t>ANN(2HL-20,16 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-20,17 Nodes)</t>
   </si>
   <si>
     <t>ANN(2HL-20,18 Nodes)</t>
@@ -506,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,37 +612,37 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>29.48087398650245</v>
+        <v>28.61837847018793</v>
       </c>
       <c r="D2">
-        <v>0.0293458472841422</v>
+        <v>0.03459179487755341</v>
       </c>
       <c r="E2">
-        <v>0.3319822936888008</v>
+        <v>0.3235262198269668</v>
       </c>
       <c r="F2">
-        <v>51.06128395959148</v>
+        <v>49.56741765496319</v>
       </c>
       <c r="G2">
-        <v>0.8760691103270782</v>
+        <v>0.873395057354008</v>
       </c>
       <c r="H2">
         <v>0.5626943361349014</v>
       </c>
       <c r="I2">
-        <v>0.5548786655024501</v>
+        <v>0.5640573470011633</v>
       </c>
       <c r="J2">
-        <v>0.01388972685621188</v>
+        <v>0.002422293559278199</v>
       </c>
       <c r="K2">
         <v>0.5810958102864388</v>
       </c>
       <c r="L2">
-        <v>0.6622049321287409</v>
+        <v>0.644328732402576</v>
       </c>
       <c r="M2">
-        <v>0.1395796018600119</v>
+        <v>0.1088166890843146</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -599,37 +653,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>29.20329940067051</v>
+        <v>30.72499122084813</v>
       </c>
       <c r="D3">
-        <v>0.03210021031642474</v>
+        <v>0.03152202933045665</v>
       </c>
       <c r="E3">
-        <v>0.3227887130404193</v>
+        <v>0.3680660647613206</v>
       </c>
       <c r="F3">
-        <v>50.58055816891346</v>
+        <v>53.21596367911814</v>
       </c>
       <c r="G3">
-        <v>0.8755325902484508</v>
+        <v>0.8571784612701011</v>
       </c>
       <c r="H3">
         <v>0.5626943361349014</v>
       </c>
       <c r="I3">
-        <v>0.5728642261082197</v>
+        <v>0.5057347854033779</v>
       </c>
       <c r="J3">
-        <v>0.01807356022663112</v>
+        <v>0.1012264511542336</v>
       </c>
       <c r="K3">
         <v>0.5810958102864388</v>
       </c>
       <c r="L3">
-        <v>0.6338611077002766</v>
+        <v>0.6779729890535252</v>
       </c>
       <c r="M3">
-        <v>0.09080309387849195</v>
+        <v>0.1667146399133956</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -640,37 +694,37 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>30.25027213306754</v>
+        <v>28.67340589915718</v>
       </c>
       <c r="D4">
-        <v>0.03174398593974435</v>
+        <v>0.02935445914309701</v>
       </c>
       <c r="E4">
-        <v>0.3553537744552517</v>
+        <v>0.3633756383784436</v>
       </c>
       <c r="F4">
-        <v>52.39379360561959</v>
+        <v>49.66245779293076</v>
       </c>
       <c r="G4">
-        <v>0.8626312162710933</v>
+        <v>0.8696611442584276</v>
       </c>
       <c r="H4">
         <v>0.5626943361349014</v>
       </c>
       <c r="I4">
-        <v>0.542274390423516</v>
+        <v>0.5421158535930241</v>
       </c>
       <c r="J4">
-        <v>0.03628958814771129</v>
+        <v>0.03657133406251988</v>
       </c>
       <c r="K4">
         <v>0.5810958102864388</v>
       </c>
       <c r="L4">
-        <v>0.6483348083112883</v>
+        <v>0.652884644950659</v>
       </c>
       <c r="M4">
-        <v>0.1157106914808171</v>
+        <v>0.1235404444386434</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -681,37 +735,37 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>28.47589457055402</v>
+        <v>30.1015887805815</v>
       </c>
       <c r="D5">
-        <v>0.03027238152127266</v>
+        <v>0.02857462514406756</v>
       </c>
       <c r="E5">
-        <v>0.3438305227781985</v>
+        <v>0.355992658222523</v>
       </c>
       <c r="F5">
-        <v>49.3204884296014</v>
+        <v>52.13625795992437</v>
       </c>
       <c r="G5">
-        <v>0.8749775386744399</v>
+        <v>0.8677091576508061</v>
       </c>
       <c r="H5">
         <v>0.5626943361349014</v>
       </c>
       <c r="I5">
-        <v>0.5441611792159284</v>
+        <v>0.5483426110309408</v>
       </c>
       <c r="J5">
-        <v>0.03293645542316206</v>
+        <v>0.02550536620386354</v>
       </c>
       <c r="K5">
         <v>0.5810958102864388</v>
       </c>
       <c r="L5">
-        <v>0.6453535165975113</v>
+        <v>0.6489899521737548</v>
       </c>
       <c r="M5">
-        <v>0.1105802264851954</v>
+        <v>0.1168381197824315</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -719,40 +773,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>29.04215777098367</v>
+        <v>28.69091875424244</v>
       </c>
       <c r="D6">
-        <v>0.02913590887402074</v>
+        <v>0.03038286562156585</v>
       </c>
       <c r="E6">
-        <v>0.3337325147090385</v>
+        <v>0.328502001768281</v>
       </c>
       <c r="F6">
-        <v>50.30137729418113</v>
+        <v>49.69303392029845</v>
       </c>
       <c r="G6">
-        <v>0.8775054755376189</v>
+        <v>0.8784611933597896</v>
       </c>
       <c r="H6">
         <v>0.5626943361349014</v>
       </c>
       <c r="I6">
-        <v>0.5938362359242542</v>
+        <v>0.5680946026935834</v>
       </c>
       <c r="J6">
-        <v>0.05534425671184784</v>
+        <v>0.009597158193871186</v>
       </c>
       <c r="K6">
         <v>0.5810958102864388</v>
       </c>
       <c r="L6">
-        <v>0.6183769962666554</v>
+        <v>0.6552816694547182</v>
       </c>
       <c r="M6">
-        <v>0.06415669381928553</v>
+        <v>0.1276654518154435</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -760,40 +814,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>28.5204857455118</v>
+        <v>29.79255557530882</v>
       </c>
       <c r="D7">
-        <v>0.02777627300638535</v>
+        <v>0.03101584891780202</v>
       </c>
       <c r="E7">
-        <v>0.3369805857227199</v>
+        <v>0.3440591360381174</v>
       </c>
       <c r="F7">
-        <v>49.39777316887201</v>
+        <v>51.60106359806572</v>
       </c>
       <c r="G7">
-        <v>0.8803845856516505</v>
+        <v>0.8689024597341793</v>
       </c>
       <c r="H7">
         <v>0.5626943361349014</v>
       </c>
       <c r="I7">
-        <v>0.569899822971752</v>
+        <v>0.5666381622580312</v>
       </c>
       <c r="J7">
-        <v>0.01280533030835976</v>
+        <v>0.007008824986971831</v>
       </c>
       <c r="K7">
         <v>0.5810958102864388</v>
       </c>
       <c r="L7">
-        <v>0.6403097814472313</v>
+        <v>0.6367986237230155</v>
       </c>
       <c r="M7">
-        <v>0.1019005301924381</v>
+        <v>0.09585822587349112</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -801,40 +855,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>29.55473423326026</v>
+        <v>29.24826868776182</v>
       </c>
       <c r="D8">
-        <v>0.0247550769563092</v>
+        <v>0.03205393902495387</v>
       </c>
       <c r="E8">
-        <v>0.3401262385752273</v>
+        <v>0.3579659542617588</v>
       </c>
       <c r="F8">
-        <v>51.18916533919979</v>
+        <v>50.65821252882009</v>
       </c>
       <c r="G8">
-        <v>0.879546196093139</v>
+        <v>0.8651411019892992</v>
       </c>
       <c r="H8">
         <v>0.5626943361349014</v>
       </c>
       <c r="I8">
-        <v>0.5590061736696601</v>
+        <v>0.5514809429139147</v>
       </c>
       <c r="J8">
-        <v>0.006554468791306756</v>
+        <v>0.01992803641495757</v>
       </c>
       <c r="K8">
         <v>0.5810958102864388</v>
       </c>
       <c r="L8">
-        <v>0.6598649819709425</v>
+        <v>0.6397495070124731</v>
       </c>
       <c r="M8">
-        <v>0.1355528129615599</v>
+        <v>0.1009363614188206</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,40 +896,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>28.27144958201046</v>
+        <v>28.97582357586471</v>
       </c>
       <c r="D9">
-        <v>0.03490492667755687</v>
+        <v>0.02829871953428076</v>
       </c>
       <c r="E9">
-        <v>0.350164565549384</v>
+        <v>0.360625292374903</v>
       </c>
       <c r="F9">
-        <v>48.96632261899608</v>
+        <v>50.18629498458599</v>
       </c>
       <c r="G9">
-        <v>0.8664003436676567</v>
+        <v>0.8709038692198078</v>
       </c>
       <c r="H9">
         <v>0.5626943361349014</v>
       </c>
       <c r="I9">
-        <v>0.5414884455644965</v>
+        <v>0.5452766616596962</v>
       </c>
       <c r="J9">
-        <v>0.03768634089347037</v>
+        <v>0.03095406041376859</v>
       </c>
       <c r="K9">
         <v>0.5810958102864388</v>
       </c>
       <c r="L9">
-        <v>0.6580929111691736</v>
+        <v>0.6506762401714116</v>
       </c>
       <c r="M9">
-        <v>0.1325032800439238</v>
+        <v>0.1197400302209624</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -883,40 +937,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>28.50891212598262</v>
+        <v>29.65470260076174</v>
       </c>
       <c r="D10">
-        <v>0.02562870346755736</v>
+        <v>0.03194625740006006</v>
       </c>
       <c r="E10">
-        <v>0.3322243279961182</v>
+        <v>0.3328387316215225</v>
       </c>
       <c r="F10">
-        <v>49.3777599936089</v>
+        <v>51.36236323256792</v>
       </c>
       <c r="G10">
-        <v>0.8846160365193448</v>
+        <v>0.8712495114374498</v>
       </c>
       <c r="H10">
         <v>0.5626943361349014</v>
       </c>
       <c r="I10">
-        <v>0.5865916517580394</v>
+        <v>0.5980643646977691</v>
       </c>
       <c r="J10">
-        <v>0.04246944404538813</v>
+        <v>0.06285833407498183</v>
       </c>
       <c r="K10">
         <v>0.5810958102864388</v>
       </c>
       <c r="L10">
-        <v>0.6374272457890596</v>
+        <v>0.5874028015671831</v>
       </c>
       <c r="M10">
-        <v>0.09694001317072566</v>
+        <v>0.01085361685474105</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -927,37 +981,37 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>29.68152716168555</v>
+        <v>28.87649571763723</v>
       </c>
       <c r="D11">
-        <v>0.02885410983417325</v>
+        <v>0.03076258786658128</v>
       </c>
       <c r="E11">
-        <v>0.3343319838816</v>
+        <v>0.3334853563758517</v>
       </c>
       <c r="F11">
-        <v>51.40881785758675</v>
+        <v>50.01443647560607</v>
       </c>
       <c r="G11">
-        <v>0.8753436264637687</v>
+        <v>0.8757911553944638</v>
       </c>
       <c r="H11">
         <v>0.5626943361349014</v>
       </c>
       <c r="I11">
-        <v>0.5314539590594541</v>
+        <v>0.5744761491511478</v>
       </c>
       <c r="J11">
-        <v>0.05551926697900442</v>
+        <v>0.02093821149360525</v>
       </c>
       <c r="K11">
         <v>0.5810958102864388</v>
       </c>
       <c r="L11">
-        <v>0.6656584969069003</v>
+        <v>0.6177948403117499</v>
       </c>
       <c r="M11">
-        <v>0.1455227952491658</v>
+        <v>0.06315486943060415</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -968,37 +1022,37 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>29.20375191568905</v>
+        <v>29.02177122370179</v>
       </c>
       <c r="D12">
-        <v>0.02577795704331616</v>
+        <v>0.0331771854711562</v>
       </c>
       <c r="E12">
-        <v>0.3374034775554099</v>
+        <v>0.3302031688197035</v>
       </c>
       <c r="F12">
-        <v>50.58125020449372</v>
+        <v>50.26608677850626</v>
       </c>
       <c r="G12">
-        <v>0.8803817740830708</v>
+        <v>0.8723949308099769</v>
       </c>
       <c r="H12">
         <v>0.5626943361349014</v>
       </c>
       <c r="I12">
-        <v>0.5605710626289621</v>
+        <v>0.5672931758867612</v>
       </c>
       <c r="J12">
-        <v>0.003773404794730846</v>
+        <v>0.008172891491051517</v>
       </c>
       <c r="K12">
         <v>0.5810958102864388</v>
       </c>
       <c r="L12">
-        <v>0.6326768522464421</v>
+        <v>0.638949836950552</v>
       </c>
       <c r="M12">
-        <v>0.08876512452323065</v>
+        <v>0.0995602199155339</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1009,37 +1063,37 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>29.1771824370523</v>
+        <v>28.8789213613062</v>
       </c>
       <c r="D13">
-        <v>0.03064713599064738</v>
+        <v>0.02790722114025913</v>
       </c>
       <c r="E13">
-        <v>0.3319298215294704</v>
+        <v>0.3503653944705825</v>
       </c>
       <c r="F13">
-        <v>50.53526301743898</v>
+        <v>50.0185241910923</v>
       </c>
       <c r="G13">
-        <v>0.8752987189730996</v>
+        <v>0.8749388266972283</v>
       </c>
       <c r="H13">
         <v>0.5626943361349014</v>
       </c>
       <c r="I13">
-        <v>0.5749289354227618</v>
+        <v>0.5447050156453234</v>
       </c>
       <c r="J13">
-        <v>0.02174288686091781</v>
+        <v>0.03196996901220848</v>
       </c>
       <c r="K13">
         <v>0.5810958102864388</v>
       </c>
       <c r="L13">
-        <v>0.6216624125011878</v>
+        <v>0.6515553950481361</v>
       </c>
       <c r="M13">
-        <v>0.06981052263094552</v>
+        <v>0.1212529560778726</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1050,37 +1104,37 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>29.02109211010697</v>
+        <v>31.01926634572693</v>
       </c>
       <c r="D14">
-        <v>0.0288125693815906</v>
+        <v>0.02865695441929411</v>
       </c>
       <c r="E14">
-        <v>0.3358786569817289</v>
+        <v>0.3677294197995261</v>
       </c>
       <c r="F14">
-        <v>50.26487558080262</v>
+        <v>53.72567922078061</v>
       </c>
       <c r="G14">
-        <v>0.8774262811493069</v>
+        <v>0.8603681572783285</v>
       </c>
       <c r="H14">
         <v>0.5626943361349014</v>
       </c>
       <c r="I14">
-        <v>0.5583942993723875</v>
+        <v>0.5205968002157978</v>
       </c>
       <c r="J14">
-        <v>0.007641869637520208</v>
+        <v>0.074814216557195</v>
       </c>
       <c r="K14">
         <v>0.5810958102864388</v>
       </c>
       <c r="L14">
-        <v>0.643471319599375</v>
+        <v>0.6668815616012681</v>
       </c>
       <c r="M14">
-        <v>0.1073411788706402</v>
+        <v>0.1476275509068687</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1091,37 +1145,37 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>30.09790979785414</v>
+        <v>29.4644363318927</v>
       </c>
       <c r="D15">
-        <v>0.03064936989351436</v>
+        <v>0.02715707098747836</v>
       </c>
       <c r="E15">
-        <v>0.3420521069446719</v>
+        <v>0.3361249038948736</v>
       </c>
       <c r="F15">
-        <v>52.12997778218931</v>
+        <v>51.03278659460947</v>
       </c>
       <c r="G15">
-        <v>0.8688855238703167</v>
+        <v>0.8779824055399864</v>
       </c>
       <c r="H15">
         <v>0.5626943361349014</v>
       </c>
       <c r="I15">
-        <v>0.5458537751564166</v>
+        <v>0.5437732773004244</v>
       </c>
       <c r="J15">
-        <v>0.02992843520366865</v>
+        <v>0.03362582066214518</v>
       </c>
       <c r="K15">
         <v>0.5810958102864388</v>
       </c>
       <c r="L15">
-        <v>0.6526493171028792</v>
+        <v>0.6671990930653207</v>
       </c>
       <c r="M15">
-        <v>0.1231354718960539</v>
+        <v>0.1481739865521301</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1129,40 +1183,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>28.72174473214897</v>
+        <v>28.92266931423306</v>
       </c>
       <c r="D16">
-        <v>0.03090261542298512</v>
+        <v>0.0306345875261897</v>
       </c>
       <c r="E16">
-        <v>0.3345617947192016</v>
+        <v>0.3432502418954861</v>
       </c>
       <c r="F16">
-        <v>49.74638655028177</v>
+        <v>50.09434740142768</v>
       </c>
       <c r="G16">
-        <v>0.8758373237823595</v>
+        <v>0.8729729497467608</v>
       </c>
       <c r="H16">
         <v>0.5626943361349014</v>
       </c>
       <c r="I16">
-        <v>0.5617135411391072</v>
+        <v>0.5430841023005044</v>
       </c>
       <c r="J16">
-        <v>0.001743033353651953</v>
+        <v>0.03485059751818007</v>
       </c>
       <c r="K16">
         <v>0.5810958102864388</v>
       </c>
       <c r="L16">
-        <v>0.6471903000418526</v>
+        <v>0.6692188104492462</v>
       </c>
       <c r="M16">
-        <v>0.113741122523038</v>
+        <v>0.1516496911574171</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1170,40 +1224,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>29.09874083165483</v>
+        <v>28.73131677487183</v>
       </c>
       <c r="D17">
-        <v>0.02532884925059642</v>
+        <v>0.0241362699726065</v>
       </c>
       <c r="E17">
-        <v>0.3472597520338348</v>
+        <v>0.3474020841193652</v>
       </c>
       <c r="F17">
-        <v>50.39929486686756</v>
+        <v>49.76288195117434</v>
       </c>
       <c r="G17">
-        <v>0.8784345673716359</v>
+        <v>0.8811963498195232</v>
       </c>
       <c r="H17">
         <v>0.5626943361349014</v>
       </c>
       <c r="I17">
-        <v>0.5494523181282134</v>
+        <v>0.5428977596175043</v>
       </c>
       <c r="J17">
-        <v>0.02353323493114624</v>
+        <v>0.03518175898726483</v>
       </c>
       <c r="K17">
         <v>0.5810958102864388</v>
       </c>
       <c r="L17">
-        <v>0.6592227122557042</v>
+        <v>0.6617350422054047</v>
       </c>
       <c r="M17">
-        <v>0.1344475396075467</v>
+        <v>0.1387709745819997</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1211,40 +1265,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>30.6959810409249</v>
+        <v>29.49877670863484</v>
       </c>
       <c r="D18">
-        <v>0.03049441734746292</v>
+        <v>0.03232253956217279</v>
       </c>
       <c r="E18">
-        <v>0.3303433942609019</v>
+        <v>0.3410744733078558</v>
       </c>
       <c r="F18">
-        <v>53.16596373176019</v>
+        <v>51.09223136030359</v>
       </c>
       <c r="G18">
-        <v>0.8701878806455378</v>
+        <v>0.8688557076478497</v>
       </c>
       <c r="H18">
         <v>0.5626943361349014</v>
       </c>
       <c r="I18">
-        <v>0.5374551876047511</v>
+        <v>0.5870315173543086</v>
       </c>
       <c r="J18">
-        <v>0.04485410090230484</v>
+        <v>0.04325115725631288</v>
       </c>
       <c r="K18">
         <v>0.5810958102864388</v>
       </c>
       <c r="L18">
-        <v>0.6347033293274886</v>
+        <v>0.6194240864280482</v>
       </c>
       <c r="M18">
-        <v>0.09225246180079184</v>
+        <v>0.06595861725920274</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1252,40 +1306,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>29.98343175606961</v>
+        <v>29.46952133688052</v>
       </c>
       <c r="D19">
-        <v>0.02758992240882919</v>
+        <v>0.02930645652612111</v>
       </c>
       <c r="E19">
-        <v>0.3333791489533423</v>
+        <v>0.3397217791441506</v>
       </c>
       <c r="F19">
-        <v>51.93174979482082</v>
+        <v>51.04156927171176</v>
       </c>
       <c r="G19">
-        <v>0.8762247925715886</v>
+        <v>0.8739331814906658</v>
       </c>
       <c r="H19">
         <v>0.5626943361349014</v>
       </c>
       <c r="I19">
-        <v>0.5482442131067927</v>
+        <v>0.5638218177412768</v>
       </c>
       <c r="J19">
-        <v>0.02568023543184263</v>
+        <v>0.002003719486711043</v>
       </c>
       <c r="K19">
         <v>0.5810958102864388</v>
       </c>
       <c r="L19">
-        <v>0.6609982006463135</v>
+        <v>0.6468598282620088</v>
       </c>
       <c r="M19">
-        <v>0.1375029538080624</v>
+        <v>0.1131724180615811</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1293,40 +1347,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>30.55814964738538</v>
+        <v>29.16917491813189</v>
       </c>
       <c r="D20">
-        <v>0.02936960078070117</v>
+        <v>0.02939971182022499</v>
       </c>
       <c r="E20">
-        <v>0.330794243968285</v>
+        <v>0.3373209114475738</v>
       </c>
       <c r="F20">
-        <v>52.92722590700088</v>
+        <v>50.52135831975789</v>
       </c>
       <c r="G20">
-        <v>0.8722535891130949</v>
+        <v>0.8756193014832435</v>
       </c>
       <c r="H20">
         <v>0.5626943361349014</v>
       </c>
       <c r="I20">
-        <v>0.5183198752173921</v>
+        <v>0.5526474583942412</v>
       </c>
       <c r="J20">
-        <v>0.07886068522088496</v>
+        <v>0.01785494734080902</v>
       </c>
       <c r="K20">
         <v>0.5810958102864388</v>
       </c>
       <c r="L20">
-        <v>0.6841188190906348</v>
+        <v>0.6615557270335337</v>
       </c>
       <c r="M20">
-        <v>0.1772909165416509</v>
+        <v>0.1384623935034637</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1334,40 +1388,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>28.16562918509139</v>
+        <v>29.72037884621647</v>
       </c>
       <c r="D21">
-        <v>0.02490298860682306</v>
+        <v>0.02761650107430105</v>
       </c>
       <c r="E21">
-        <v>0.3407994639830794</v>
+        <v>0.3482880560545683</v>
       </c>
       <c r="F21">
-        <v>48.78310401914503</v>
+        <v>51.47602052457798</v>
       </c>
       <c r="G21">
-        <v>0.8842755972490246</v>
+        <v>0.8728190951104784</v>
       </c>
       <c r="H21">
         <v>0.5626943361349014</v>
       </c>
       <c r="I21">
-        <v>0.5856638784007518</v>
+        <v>0.5464863843677503</v>
       </c>
       <c r="J21">
-        <v>0.04082063882786924</v>
+        <v>0.02880418501896088</v>
       </c>
       <c r="K21">
         <v>0.5810958102864388</v>
       </c>
       <c r="L21">
-        <v>0.6175265286333969</v>
+        <v>0.6521793099786677</v>
       </c>
       <c r="M21">
-        <v>0.06269313545558065</v>
+        <v>0.1223266429286245</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1375,40 +1429,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>29.14218377896989</v>
+        <v>29.41663318992274</v>
       </c>
       <c r="D22">
-        <v>0.02643653737772649</v>
+        <v>0.03290623703419056</v>
       </c>
       <c r="E22">
-        <v>0.3370617493757719</v>
+        <v>0.3397974518781421</v>
       </c>
       <c r="F22">
-        <v>50.47461061472755</v>
+        <v>50.94995956389619</v>
       </c>
       <c r="G22">
-        <v>0.8798639481035965</v>
+        <v>0.8686014291624828</v>
       </c>
       <c r="H22">
         <v>0.5626943361349014</v>
       </c>
       <c r="I22">
-        <v>0.5579533879489027</v>
+        <v>0.5568824369013878</v>
       </c>
       <c r="J22">
-        <v>0.008425441454704957</v>
+        <v>0.01032869687908178</v>
       </c>
       <c r="K22">
         <v>0.5810958102864388</v>
       </c>
       <c r="L22">
-        <v>0.6424559720086986</v>
+        <v>0.6419796538104514</v>
       </c>
       <c r="M22">
-        <v>0.1055938807956879</v>
+        <v>0.1047741911854454</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1416,40 +1470,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>28.77384794737297</v>
+        <v>30.46349768325376</v>
       </c>
       <c r="D23">
-        <v>0.02543616122108178</v>
+        <v>0.02734381235705898</v>
       </c>
       <c r="E23">
-        <v>0.3632207935398868</v>
+        <v>0.3347518563853186</v>
       </c>
       <c r="F23">
-        <v>49.83643647726489</v>
+        <v>52.76325678730792</v>
       </c>
       <c r="G23">
-        <v>0.8746221073728103</v>
+        <v>0.8743145601647125</v>
       </c>
       <c r="H23">
         <v>0.5626943361349014</v>
       </c>
       <c r="I23">
-        <v>0.5361224637510142</v>
+        <v>0.5741207749199717</v>
       </c>
       <c r="J23">
-        <v>0.04722256947956333</v>
+        <v>0.0203066532774393</v>
       </c>
       <c r="K23">
         <v>0.5810958102864388</v>
       </c>
       <c r="L23">
-        <v>0.6861003717439148</v>
+        <v>0.6132805559301939</v>
       </c>
       <c r="M23">
-        <v>0.1807009439729333</v>
+        <v>0.05538629787726466</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1457,40 +1511,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>29.86516584202266</v>
+        <v>30.37643499176282</v>
       </c>
       <c r="D24">
-        <v>0.02954803519421098</v>
+        <v>0.02515169496096015</v>
       </c>
       <c r="E24">
-        <v>0.3550429036797297</v>
+        <v>0.3521804352032727</v>
       </c>
       <c r="F24">
-        <v>51.72675771556456</v>
+        <v>52.61234403407325</v>
       </c>
       <c r="G24">
-        <v>0.8675110996286177</v>
+        <v>0.8723342290409321</v>
       </c>
       <c r="H24">
         <v>0.5626943361349014</v>
       </c>
       <c r="I24">
-        <v>0.52879256807125</v>
+        <v>0.5184500938236365</v>
       </c>
       <c r="J24">
-        <v>0.06024899467892235</v>
+        <v>0.07862926542885566</v>
       </c>
       <c r="K24">
         <v>0.5810958102864388</v>
       </c>
       <c r="L24">
-        <v>0.6641450120458433</v>
+        <v>0.6803512007040465</v>
       </c>
       <c r="M24">
-        <v>0.1429182594148583</v>
+        <v>0.1708072725024157</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1498,40 +1552,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>28.68660779594595</v>
+        <v>28.8664685701009</v>
       </c>
       <c r="D25">
-        <v>0.03108385644667115</v>
+        <v>0.02270920113891079</v>
       </c>
       <c r="E25">
-        <v>0.3242592074730679</v>
+        <v>0.3557332896583016</v>
       </c>
       <c r="F25">
-        <v>49.68559439390373</v>
+        <v>49.9969195175531</v>
       </c>
       <c r="G25">
-        <v>0.8786081039643748</v>
+        <v>0.8798258174794228</v>
       </c>
       <c r="H25">
         <v>0.5626943361349014</v>
       </c>
       <c r="I25">
-        <v>0.5587178947917096</v>
+        <v>0.5698999153217837</v>
       </c>
       <c r="J25">
-        <v>0.007066787575125744</v>
+        <v>0.01280549442949232</v>
       </c>
       <c r="K25">
         <v>0.5810958102864388</v>
       </c>
       <c r="L25">
-        <v>0.655642002716569</v>
+        <v>0.6484138041170902</v>
       </c>
       <c r="M25">
-        <v>0.1282855445014899</v>
+        <v>0.115846634305397</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1539,40 +1593,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>28.39508069555894</v>
+        <v>28.99318140224165</v>
       </c>
       <c r="D26">
-        <v>0.03195608277384718</v>
+        <v>0.02910241361515943</v>
       </c>
       <c r="E26">
-        <v>0.3269854777066943</v>
+        <v>0.3424579139739745</v>
       </c>
       <c r="F26">
-        <v>49.18062507154676</v>
+        <v>50.21648712421599</v>
       </c>
       <c r="G26">
-        <v>0.8775522919676201</v>
+        <v>0.8751975295717829</v>
       </c>
       <c r="H26">
         <v>0.5626943361349014</v>
       </c>
       <c r="I26">
-        <v>0.5731772861867811</v>
+        <v>0.5522075823185855</v>
       </c>
       <c r="J26">
-        <v>0.0186299192628918</v>
+        <v>0.01863667917532016</v>
       </c>
       <c r="K26">
         <v>0.5810958102864388</v>
       </c>
       <c r="L26">
-        <v>0.6400752864451894</v>
+        <v>0.65998682114492</v>
       </c>
       <c r="M26">
-        <v>0.1014969908829286</v>
+        <v>0.1357624843648307</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1580,40 +1634,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>28.35324316004831</v>
+        <v>29.08378107740034</v>
       </c>
       <c r="D27">
-        <v>0.02639139117121302</v>
+        <v>0.03250818134921674</v>
       </c>
       <c r="E27">
-        <v>0.3282520452702827</v>
+        <v>0.3196897722736814</v>
       </c>
       <c r="F27">
-        <v>49.10815357115077</v>
+        <v>50.37356158682944</v>
       </c>
       <c r="G27">
-        <v>0.8853321921261919</v>
+        <v>0.876184167176044</v>
       </c>
       <c r="H27">
         <v>0.5626943361349014</v>
       </c>
       <c r="I27">
-        <v>0.5592613499716627</v>
+        <v>0.5649176891927349</v>
       </c>
       <c r="J27">
-        <v>0.006100978706875941</v>
+        <v>0.003951262550651423</v>
       </c>
       <c r="K27">
         <v>0.5810958102864388</v>
       </c>
       <c r="L27">
-        <v>0.658874034489239</v>
+        <v>0.6493779432063255</v>
       </c>
       <c r="M27">
-        <v>0.1338475047074614</v>
+        <v>0.1175058083558174</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1621,40 +1675,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>28.96187724106685</v>
+        <v>29.77408569426358</v>
       </c>
       <c r="D28">
-        <v>0.02567530449839323</v>
+        <v>0.03224537328541139</v>
       </c>
       <c r="E28">
-        <v>0.3367973075049883</v>
+        <v>0.3329371878148206</v>
       </c>
       <c r="F28">
-        <v>50.1623056520758</v>
+        <v>51.56914435835563</v>
       </c>
       <c r="G28">
-        <v>0.8815835409469145</v>
+        <v>0.8702971769642488</v>
       </c>
       <c r="H28">
         <v>0.5626943361349014</v>
       </c>
       <c r="I28">
-        <v>0.5408096434068704</v>
+        <v>0.5578332256957993</v>
       </c>
       <c r="J28">
-        <v>0.03889268350976306</v>
+        <v>0.008638989460055056</v>
       </c>
       <c r="K28">
         <v>0.5810958102864388</v>
       </c>
       <c r="L28">
-        <v>0.6547773017627213</v>
+        <v>0.6394319425473359</v>
       </c>
       <c r="M28">
-        <v>0.1267974922069441</v>
+        <v>0.1003898689824345</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1662,40 +1716,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>28.87981094837281</v>
+        <v>28.63186322307656</v>
       </c>
       <c r="D29">
-        <v>0.02752203984023929</v>
+        <v>0.02244422674666324</v>
       </c>
       <c r="E29">
-        <v>0.3464622004133482</v>
+        <v>0.339381239164545</v>
       </c>
       <c r="F29">
-        <v>50.02009244016119</v>
+        <v>49.59067544918177</v>
       </c>
       <c r="G29">
-        <v>0.8766301743779054</v>
+        <v>0.8858668431305295</v>
       </c>
       <c r="H29">
         <v>0.5626943361349014</v>
       </c>
       <c r="I29">
-        <v>0.5472131982864775</v>
+        <v>0.5485942770934544</v>
       </c>
       <c r="J29">
-        <v>0.02751251763926123</v>
+        <v>0.02505811438995288</v>
       </c>
       <c r="K29">
         <v>0.5810958102864388</v>
       </c>
       <c r="L29">
-        <v>0.6597393366815701</v>
+        <v>0.6552413919362441</v>
       </c>
       <c r="M29">
-        <v>0.1353365916652639</v>
+        <v>0.1275961387731515</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1703,40 +1757,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>28.00896125897214</v>
+        <v>29.79428703063714</v>
       </c>
       <c r="D30">
-        <v>0.02371939645168933</v>
+        <v>0.0291444530147129</v>
       </c>
       <c r="E30">
-        <v>0.3338958254028447</v>
+        <v>0.3452602726348336</v>
       </c>
       <c r="F30">
-        <v>48.5117891175724</v>
+        <v>51.6040557024056</v>
       </c>
       <c r="G30">
-        <v>0.8882544160265993</v>
+        <v>0.8713088233271536</v>
       </c>
       <c r="H30">
         <v>0.5626943361349014</v>
       </c>
       <c r="I30">
-        <v>0.5618643689126802</v>
+        <v>0.5334171382521145</v>
       </c>
       <c r="J30">
-        <v>0.001474987695668213</v>
+        <v>0.05203037600109763</v>
       </c>
       <c r="K30">
         <v>0.5810958102864388</v>
       </c>
       <c r="L30">
-        <v>0.6451544501451775</v>
+        <v>0.6638437219696069</v>
       </c>
       <c r="M30">
-        <v>0.1102376556925482</v>
+        <v>0.1423997733564442</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1744,40 +1798,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>29.73564076888103</v>
+        <v>29.58831907038133</v>
       </c>
       <c r="D31">
-        <v>0.02513358800169047</v>
+        <v>0.03395042787334439</v>
       </c>
       <c r="E31">
-        <v>0.3318137986806766</v>
+        <v>0.3284618052896032</v>
       </c>
       <c r="F31">
-        <v>51.50256560321608</v>
+        <v>51.24740809487817</v>
       </c>
       <c r="G31">
-        <v>0.8808002641051561</v>
+        <v>0.8694964455327354</v>
       </c>
       <c r="H31">
         <v>0.5626943361349014</v>
       </c>
       <c r="I31">
-        <v>0.5249691588811394</v>
+        <v>0.5541292835232511</v>
       </c>
       <c r="J31">
-        <v>0.06704381905261919</v>
+        <v>0.01522150137583205</v>
       </c>
       <c r="K31">
         <v>0.5810958102864388</v>
       </c>
       <c r="L31">
-        <v>0.6762249260972054</v>
+        <v>0.6564401906807522</v>
       </c>
       <c r="M31">
-        <v>0.1637064217755671</v>
+        <v>0.1296591354826221</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1785,40 +1839,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <v>28.9279938868234</v>
+        <v>29.58813165033899</v>
       </c>
       <c r="D32">
-        <v>0.03060454623062464</v>
+        <v>0.0292938187988393</v>
       </c>
       <c r="E32">
-        <v>0.3244301805816996</v>
+        <v>0.3329075428773983</v>
       </c>
       <c r="F32">
-        <v>50.10369546618249</v>
+        <v>51.24705765322974</v>
       </c>
       <c r="G32">
-        <v>0.8784017744556634</v>
+        <v>0.8754760642013585</v>
       </c>
       <c r="H32">
         <v>0.5626943361349014</v>
       </c>
       <c r="I32">
-        <v>0.5757837371045452</v>
+        <v>0.5715514665766456</v>
       </c>
       <c r="J32">
-        <v>0.02326200945890765</v>
+        <v>0.0157405715198469</v>
       </c>
       <c r="K32">
         <v>0.5810958102864388</v>
       </c>
       <c r="L32">
-        <v>0.6339895942636539</v>
+        <v>0.6382819002164322</v>
       </c>
       <c r="M32">
-        <v>0.09102420468518307</v>
+        <v>0.09841077653236693</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1826,40 +1880,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>30.29861936944859</v>
+        <v>29.44413307987584</v>
       </c>
       <c r="D33">
-        <v>0.03633529393408732</v>
+        <v>0.02812690652704947</v>
       </c>
       <c r="E33">
-        <v>0.3506436222489918</v>
+        <v>0.3274793827071348</v>
       </c>
       <c r="F33">
-        <v>52.47756411916207</v>
+        <v>50.99767528630446</v>
       </c>
       <c r="G33">
-        <v>0.8561870171391696</v>
+        <v>0.8792068714470873</v>
       </c>
       <c r="H33">
         <v>0.5626943361349014</v>
       </c>
       <c r="I33">
-        <v>0.5277381403359136</v>
+        <v>0.5449395046524377</v>
       </c>
       <c r="J33">
-        <v>0.06212288547117582</v>
+        <v>0.03155324363920224</v>
       </c>
       <c r="K33">
         <v>0.5810958102864388</v>
       </c>
       <c r="L33">
-        <v>0.6668454572334304</v>
+        <v>0.6716113761096325</v>
       </c>
       <c r="M33">
-        <v>0.1475654193836351</v>
+        <v>0.1557670253698371</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1867,40 +1921,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>29.0365960697789</v>
+        <v>28.92467133004088</v>
       </c>
       <c r="D34">
-        <v>0.03102284808306469</v>
+        <v>0.02553169687555144</v>
       </c>
       <c r="E34">
-        <v>0.3318648965766086</v>
+        <v>0.3424138820239979</v>
       </c>
       <c r="F34">
-        <v>50.29175516157508</v>
+        <v>50.09782366049964</v>
       </c>
       <c r="G34">
-        <v>0.8752686852928973</v>
+        <v>0.8802612333860869</v>
       </c>
       <c r="H34">
         <v>0.5626943361349014</v>
       </c>
       <c r="I34">
-        <v>0.5717314791629619</v>
+        <v>0.5755121896027356</v>
       </c>
       <c r="J34">
-        <v>0.01606048337030691</v>
+        <v>0.02277942507095235</v>
       </c>
       <c r="K34">
         <v>0.5810958102864388</v>
       </c>
       <c r="L34">
-        <v>0.6400449417802819</v>
+        <v>0.619739706435734</v>
       </c>
       <c r="M34">
-        <v>0.1014447711553547</v>
+        <v>0.06650176350479367</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1908,40 +1962,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>29.74556797767139</v>
+        <v>28.94115679623912</v>
       </c>
       <c r="D35">
-        <v>0.02830846753873308</v>
+        <v>0.02914740852945907</v>
       </c>
       <c r="E35">
-        <v>0.3551744396070785</v>
+        <v>0.3515372741988598</v>
       </c>
       <c r="F35">
-        <v>51.51960299430619</v>
+        <v>50.12631287145423</v>
       </c>
       <c r="G35">
-        <v>0.869688896773179</v>
+        <v>0.8726156515726643</v>
       </c>
       <c r="H35">
         <v>0.5626943361349014</v>
       </c>
       <c r="I35">
-        <v>0.5468559849626625</v>
+        <v>0.5365300933948948</v>
       </c>
       <c r="J35">
-        <v>0.0281473442242748</v>
+        <v>0.04649814483601618</v>
       </c>
       <c r="K35">
         <v>0.5810958102864388</v>
       </c>
       <c r="L35">
-        <v>0.648487667821256</v>
+        <v>0.6614360967722447</v>
       </c>
       <c r="M35">
-        <v>0.1159737453649818</v>
+        <v>0.1382565233884648</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1949,40 +2003,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>28.55130288803957</v>
+        <v>29.57004825829576</v>
       </c>
       <c r="D36">
-        <v>0.02819114440082919</v>
+        <v>0.03032928023431561</v>
       </c>
       <c r="E36">
-        <v>0.3440510787002979</v>
+        <v>0.3297407993394688</v>
       </c>
       <c r="F36">
-        <v>49.45110235301489</v>
+        <v>51.21575551657742</v>
       </c>
       <c r="G36">
-        <v>0.8776309730553321</v>
+        <v>0.8749281097927857</v>
       </c>
       <c r="H36">
         <v>0.5626943361349014</v>
       </c>
       <c r="I36">
-        <v>0.5387287870227342</v>
+        <v>0.5540942144697953</v>
       </c>
       <c r="J36">
-        <v>0.04259070613147535</v>
+        <v>0.01528382482784442</v>
       </c>
       <c r="K36">
         <v>0.5810958102864388</v>
       </c>
       <c r="L36">
-        <v>0.6506766069754704</v>
+        <v>0.6554883871784239</v>
       </c>
       <c r="M36">
-        <v>0.1197406614491563</v>
+        <v>0.1280211895785567</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1990,40 +2044,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>29.27724217473673</v>
+        <v>28.32166993260249</v>
       </c>
       <c r="D37">
-        <v>0.03017868343420282</v>
+        <v>0.02430878702227228</v>
       </c>
       <c r="E37">
-        <v>0.3332363925368322</v>
+        <v>0.3358834687384591</v>
       </c>
       <c r="F37">
-        <v>50.70856703584028</v>
+        <v>49.05341532138349</v>
       </c>
       <c r="G37">
-        <v>0.875253260594346</v>
+        <v>0.8858637461091666</v>
       </c>
       <c r="H37">
         <v>0.5626943361349014</v>
       </c>
       <c r="I37">
-        <v>0.5658812027287796</v>
+        <v>0.5531008723472776</v>
       </c>
       <c r="J37">
-        <v>0.005663583919768137</v>
+        <v>0.01704915648080003</v>
       </c>
       <c r="K37">
         <v>0.5810958102864388</v>
       </c>
       <c r="L37">
-        <v>0.6376995601409862</v>
+        <v>0.6517574578764498</v>
       </c>
       <c r="M37">
-        <v>0.09740863529311251</v>
+        <v>0.121600683293827</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2031,40 +2085,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38">
-        <v>28.21134036550625</v>
+        <v>28.69554085147067</v>
       </c>
       <c r="D38">
-        <v>0.02716868952626057</v>
+        <v>0.02716101344941286</v>
       </c>
       <c r="E38">
-        <v>0.3405098961493711</v>
+        <v>0.3244316056886618</v>
       </c>
       <c r="F38">
-        <v>48.86228085679441</v>
+        <v>49.70106840589897</v>
       </c>
       <c r="G38">
-        <v>0.8812946331831144</v>
+        <v>0.8841468808105439</v>
       </c>
       <c r="H38">
         <v>0.5626943361349014</v>
       </c>
       <c r="I38">
-        <v>0.5565663095374632</v>
+        <v>0.5508254447720063</v>
       </c>
       <c r="J38">
-        <v>0.01089050698382899</v>
+        <v>0.02109296397831445</v>
       </c>
       <c r="K38">
         <v>0.5810958102864388</v>
       </c>
       <c r="L38">
-        <v>0.6614114944218917</v>
+        <v>0.6617235263979355</v>
       </c>
       <c r="M38">
-        <v>0.1382141855331276</v>
+        <v>0.1387511571831039</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2072,40 +2126,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C39">
-        <v>27.61509400835156</v>
+        <v>29.05123165022896</v>
       </c>
       <c r="D39">
-        <v>0.02471077476380313</v>
+        <v>0.02837141810951649</v>
       </c>
       <c r="E39">
-        <v>0.3492396438800969</v>
+        <v>0.3468519834288425</v>
       </c>
       <c r="F39">
-        <v>47.82946447869802</v>
+        <v>50.31700577289969</v>
       </c>
       <c r="G39">
-        <v>0.8839619134684688</v>
+        <v>0.8747138065872465</v>
       </c>
       <c r="H39">
         <v>0.5626943361349014</v>
       </c>
       <c r="I39">
-        <v>0.5643456671825526</v>
+        <v>0.5571634257717566</v>
       </c>
       <c r="J39">
-        <v>0.002934685746073259</v>
+        <v>0.009829333632778563</v>
       </c>
       <c r="K39">
         <v>0.5810958102864388</v>
       </c>
       <c r="L39">
-        <v>0.6531611776648204</v>
+        <v>0.6597000970432163</v>
       </c>
       <c r="M39">
-        <v>0.1240163258841233</v>
+        <v>0.1352690646969753</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2113,40 +2167,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>28.71172024494157</v>
+        <v>28.90581751840607</v>
       </c>
       <c r="D40">
-        <v>0.02435974949518668</v>
+        <v>0.03193791201417887</v>
       </c>
       <c r="E40">
-        <v>0.3365224423933315</v>
+        <v>0.3368775730028429</v>
       </c>
       <c r="F40">
-        <v>49.72901363911951</v>
+        <v>50.06520101520375</v>
       </c>
       <c r="G40">
-        <v>0.8842010126302481</v>
+        <v>0.8728929628992309</v>
       </c>
       <c r="H40">
         <v>0.5626943361349014</v>
       </c>
       <c r="I40">
-        <v>0.560299514993018</v>
+        <v>0.5396176180966797</v>
       </c>
       <c r="J40">
-        <v>0.004255989421065092</v>
+        <v>0.04101110772987981</v>
       </c>
       <c r="K40">
         <v>0.5810958102864388</v>
       </c>
       <c r="L40">
-        <v>0.6534446195300347</v>
+        <v>0.6804981617018088</v>
       </c>
       <c r="M40">
-        <v>0.1245040971951479</v>
+        <v>0.1710601757158974</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2154,40 +2208,1475 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>28.5807057891912</v>
+      </c>
+      <c r="D41">
+        <v>0.02549940339076741</v>
+      </c>
+      <c r="E41">
+        <v>0.3520210756169471</v>
+      </c>
+      <c r="F41">
+        <v>49.50197633597743</v>
+      </c>
+      <c r="G41">
+        <v>0.8786929455704345</v>
+      </c>
+      <c r="H41">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I41">
+        <v>0.5580300395701028</v>
+      </c>
+      <c r="J41">
+        <v>0.008289218968929486</v>
+      </c>
+      <c r="K41">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L41">
+        <v>0.6442546852821658</v>
+      </c>
+      <c r="M41">
+        <v>0.1086892623861704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>28.72978629198498</v>
+      </c>
+      <c r="D42">
+        <v>0.03155602134338801</v>
+      </c>
+      <c r="E42">
+        <v>0.3267159875412428</v>
+      </c>
+      <c r="F42">
+        <v>49.76036698046335</v>
+      </c>
+      <c r="G42">
+        <v>0.8770350823917221</v>
+      </c>
+      <c r="H42">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I42">
+        <v>0.5615502790395888</v>
+      </c>
+      <c r="J42">
+        <v>0.002033176845480713</v>
+      </c>
+      <c r="K42">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L42">
+        <v>0.6589751798271909</v>
+      </c>
+      <c r="M42">
+        <v>0.1340215643653723</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>29.21052429611015</v>
+      </c>
+      <c r="D43">
+        <v>0.02501713445323736</v>
+      </c>
+      <c r="E43">
+        <v>0.3302506829038312</v>
+      </c>
+      <c r="F43">
+        <v>50.59302815201273</v>
+      </c>
+      <c r="G43">
+        <v>0.8833605316292005</v>
+      </c>
+      <c r="H43">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I43">
+        <v>0.5605637478440121</v>
+      </c>
+      <c r="J43">
+        <v>0.003786404365688355</v>
+      </c>
+      <c r="K43">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L43">
+        <v>0.6445686949271009</v>
+      </c>
+      <c r="M43">
+        <v>0.109229637380064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>28.28237856576556</v>
+      </c>
+      <c r="D44">
+        <v>0.02601799379878168</v>
+      </c>
+      <c r="E44">
+        <v>0.3245345774514513</v>
+      </c>
+      <c r="F44">
+        <v>48.98543469628355</v>
+      </c>
+      <c r="G44">
+        <v>0.8871126101355445</v>
+      </c>
+      <c r="H44">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I44">
+        <v>0.5918400265350908</v>
+      </c>
+      <c r="J44">
+        <v>0.05179666566468157</v>
+      </c>
+      <c r="K44">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L44">
+        <v>0.6235579417397171</v>
+      </c>
+      <c r="M44">
+        <v>0.07307251351949616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>28.47620489448069</v>
+      </c>
+      <c r="D45">
+        <v>0.02930608203190698</v>
+      </c>
+      <c r="E45">
+        <v>0.335308632764953</v>
+      </c>
+      <c r="F45">
+        <v>49.32108519539781</v>
+      </c>
+      <c r="G45">
+        <v>0.8788809460487595</v>
+      </c>
+      <c r="H45">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I45">
+        <v>0.5705030926622799</v>
+      </c>
+      <c r="J45">
+        <v>0.01387743935902435</v>
+      </c>
+      <c r="K45">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L45">
+        <v>0.6453366752642171</v>
+      </c>
+      <c r="M45">
+        <v>0.1105512444602074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="C41">
-        <v>29.16704203730822</v>
-      </c>
-      <c r="D41">
-        <v>0.02783552092190112</v>
-      </c>
-      <c r="E41">
-        <v>0.3680729444400289</v>
-      </c>
-      <c r="F41">
-        <v>50.51745016437054</v>
-      </c>
-      <c r="G41">
-        <v>0.868501573996848</v>
-      </c>
-      <c r="H41">
-        <v>0.5626943361349014</v>
-      </c>
-      <c r="I41">
-        <v>0.5280457561776933</v>
-      </c>
-      <c r="J41">
-        <v>0.06157620173539712</v>
-      </c>
-      <c r="K41">
-        <v>0.5810958102864388</v>
-      </c>
-      <c r="L41">
-        <v>0.6630059085092385</v>
-      </c>
-      <c r="M41">
-        <v>0.1409579913894473</v>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>28.83237537759687</v>
+      </c>
+      <c r="D46">
+        <v>0.02996853384866295</v>
+      </c>
+      <c r="E46">
+        <v>0.3277245913586368</v>
+      </c>
+      <c r="F46">
+        <v>49.93805471004212</v>
+      </c>
+      <c r="G46">
+        <v>0.8787772565358202</v>
+      </c>
+      <c r="H46">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I46">
+        <v>0.5669830942743141</v>
+      </c>
+      <c r="J46">
+        <v>0.00762182567692412</v>
+      </c>
+      <c r="K46">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L46">
+        <v>0.6511773773705186</v>
+      </c>
+      <c r="M46">
+        <v>0.1206024305174987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <v>29.83277335426183</v>
+      </c>
+      <c r="D47">
+        <v>0.03221586321276727</v>
+      </c>
+      <c r="E47">
+        <v>0.3517764075705784</v>
+      </c>
+      <c r="F47">
+        <v>51.67067169601628</v>
+      </c>
+      <c r="G47">
+        <v>0.8645744600630408</v>
+      </c>
+      <c r="H47">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I47">
+        <v>0.5280108539597206</v>
+      </c>
+      <c r="J47">
+        <v>0.06163822869342996</v>
+      </c>
+      <c r="K47">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L47">
+        <v>0.6598865359094896</v>
+      </c>
+      <c r="M47">
+        <v>0.1355899048458337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>29.08523656942421</v>
+      </c>
+      <c r="D48">
+        <v>0.02801419519522161</v>
+      </c>
+      <c r="E48">
+        <v>0.3408591353111465</v>
+      </c>
+      <c r="F48">
+        <v>50.37594653356755</v>
+      </c>
+      <c r="G48">
+        <v>0.8768554242758695</v>
+      </c>
+      <c r="H48">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I48">
+        <v>0.5592145023497017</v>
+      </c>
+      <c r="J48">
+        <v>0.006184234604354378</v>
+      </c>
+      <c r="K48">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L48">
+        <v>0.6686787582608793</v>
+      </c>
+      <c r="M48">
+        <v>0.1507203225768715</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>29.49076300639967</v>
+      </c>
+      <c r="D49">
+        <v>0.03544833368257726</v>
+      </c>
+      <c r="E49">
+        <v>0.3410435600066394</v>
+      </c>
+      <c r="F49">
+        <v>51.07834904149419</v>
+      </c>
+      <c r="G49">
+        <v>0.8636848141526428</v>
+      </c>
+      <c r="H49">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I49">
+        <v>0.5511919334609644</v>
+      </c>
+      <c r="J49">
+        <v>0.02044165355021341</v>
+      </c>
+      <c r="K49">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L49">
+        <v>0.6377405254566475</v>
+      </c>
+      <c r="M49">
+        <v>0.09747913195637557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>29.30926206637635</v>
+      </c>
+      <c r="D50">
+        <v>0.03141231169084307</v>
+      </c>
+      <c r="E50">
+        <v>0.3390942329907473</v>
+      </c>
+      <c r="F50">
+        <v>50.76398878136364</v>
+      </c>
+      <c r="G50">
+        <v>0.8715715745864009</v>
+      </c>
+      <c r="H50">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I50">
+        <v>0.5548333272542557</v>
+      </c>
+      <c r="J50">
+        <v>0.01397030034928423</v>
+      </c>
+      <c r="K50">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L50">
+        <v>0.6396909093157702</v>
+      </c>
+      <c r="M50">
+        <v>0.1008355214270918</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <v>29.07577918707328</v>
+      </c>
+      <c r="D51">
+        <v>0.02678315994286647</v>
+      </c>
+      <c r="E51">
+        <v>0.3474590023067016</v>
+      </c>
+      <c r="F51">
+        <v>50.35952105521252</v>
+      </c>
+      <c r="G51">
+        <v>0.87659617699366</v>
+      </c>
+      <c r="H51">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I51">
+        <v>0.531609663901472</v>
+      </c>
+      <c r="J51">
+        <v>0.05524255397157058</v>
+      </c>
+      <c r="K51">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L51">
+        <v>0.6784309383131897</v>
+      </c>
+      <c r="M51">
+        <v>0.167502718663161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>29.20963958014502</v>
+      </c>
+      <c r="D52">
+        <v>0.02996107420762088</v>
+      </c>
+      <c r="E52">
+        <v>0.3490669673793523</v>
+      </c>
+      <c r="F52">
+        <v>50.59136673180754</v>
+      </c>
+      <c r="G52">
+        <v>0.8711825149131632</v>
+      </c>
+      <c r="H52">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I52">
+        <v>0.5318047739780456</v>
+      </c>
+      <c r="J52">
+        <v>0.05489581140807905</v>
+      </c>
+      <c r="K52">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L52">
+        <v>0.6571134229583929</v>
+      </c>
+      <c r="M52">
+        <v>0.1308176918957356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <v>28.87107522526427</v>
+      </c>
+      <c r="D53">
+        <v>0.02812134553529689</v>
+      </c>
+      <c r="E53">
+        <v>0.3367714638311047</v>
+      </c>
+      <c r="F53">
+        <v>50.00502722886646</v>
+      </c>
+      <c r="G53">
+        <v>0.8786891409855894</v>
+      </c>
+      <c r="H53">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I53">
+        <v>0.5511440565245361</v>
+      </c>
+      <c r="J53">
+        <v>0.0205267387080935</v>
+      </c>
+      <c r="K53">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L53">
+        <v>0.6610995115520931</v>
+      </c>
+      <c r="M53">
+        <v>0.1376772983894313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>29.55955283819237</v>
+      </c>
+      <c r="D54">
+        <v>0.02704107956513607</v>
+      </c>
+      <c r="E54">
+        <v>0.3531217124690759</v>
+      </c>
+      <c r="F54">
+        <v>51.19742245287216</v>
+      </c>
+      <c r="G54">
+        <v>0.8727420548388422</v>
+      </c>
+      <c r="H54">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I54">
+        <v>0.5361075895543653</v>
+      </c>
+      <c r="J54">
+        <v>0.04724900336327911</v>
+      </c>
+      <c r="K54">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L54">
+        <v>0.6866903717766522</v>
+      </c>
+      <c r="M54">
+        <v>0.1817162671301361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>29.09413208328522</v>
+      </c>
+      <c r="D55">
+        <v>0.02963691417257952</v>
+      </c>
+      <c r="E55">
+        <v>0.3423547856192285</v>
+      </c>
+      <c r="F55">
+        <v>50.39134330312122</v>
+      </c>
+      <c r="G55">
+        <v>0.8740822058655766</v>
+      </c>
+      <c r="H55">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I55">
+        <v>0.5359210426359018</v>
+      </c>
+      <c r="J55">
+        <v>0.04758052779223446</v>
+      </c>
+      <c r="K55">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L55">
+        <v>0.6722979235498404</v>
+      </c>
+      <c r="M55">
+        <v>0.1569484956679442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>28.91651338638561</v>
+      </c>
+      <c r="D56">
+        <v>0.02835307636253809</v>
+      </c>
+      <c r="E56">
+        <v>0.33012610923869</v>
+      </c>
+      <c r="F56">
+        <v>50.08377433990091</v>
+      </c>
+      <c r="G56">
+        <v>0.8801056523325431</v>
+      </c>
+      <c r="H56">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I56">
+        <v>0.5608470685723764</v>
+      </c>
+      <c r="J56">
+        <v>0.003282897025787886</v>
+      </c>
+      <c r="K56">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L56">
+        <v>0.6475630146018015</v>
+      </c>
+      <c r="M56">
+        <v>0.1143825220192161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57">
+        <v>28.22108666494023</v>
+      </c>
+      <c r="D57">
+        <v>0.02291660256915818</v>
+      </c>
+      <c r="E57">
+        <v>0.3527970219198832</v>
+      </c>
+      <c r="F57">
+        <v>48.87907739248823</v>
+      </c>
+      <c r="G57">
+        <v>0.8828344425471825</v>
+      </c>
+      <c r="H57">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I57">
+        <v>0.5652658032150693</v>
+      </c>
+      <c r="J57">
+        <v>0.004569918186543427</v>
+      </c>
+      <c r="K57">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L57">
+        <v>0.6588765703858396</v>
+      </c>
+      <c r="M57">
+        <v>0.1338518686979699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58">
+        <v>28.54707159410294</v>
+      </c>
+      <c r="D58">
+        <v>0.02996044750882923</v>
+      </c>
+      <c r="E58">
+        <v>0.3289519004928896</v>
+      </c>
+      <c r="F58">
+        <v>49.44387507887367</v>
+      </c>
+      <c r="G58">
+        <v>0.8794853731989168</v>
+      </c>
+      <c r="H58">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I58">
+        <v>0.5630029563442502</v>
+      </c>
+      <c r="J58">
+        <v>0.0005484686614561268</v>
+      </c>
+      <c r="K58">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L58">
+        <v>0.6477561855171045</v>
+      </c>
+      <c r="M58">
+        <v>0.1147149472611184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>29.26576523253107</v>
+      </c>
+      <c r="D59">
+        <v>0.0234881693506651</v>
+      </c>
+      <c r="E59">
+        <v>0.333128818864772</v>
+      </c>
+      <c r="F59">
+        <v>50.68869220479865</v>
+      </c>
+      <c r="G59">
+        <v>0.8841577991381361</v>
+      </c>
+      <c r="H59">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I59">
+        <v>0.5418548543795085</v>
+      </c>
+      <c r="J59">
+        <v>0.03703517241445408</v>
+      </c>
+      <c r="K59">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L59">
+        <v>0.6616772864949846</v>
+      </c>
+      <c r="M59">
+        <v>0.1386715835531922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60">
+        <v>28.52560740701054</v>
+      </c>
+      <c r="D60">
+        <v>0.02200816870818563</v>
+      </c>
+      <c r="E60">
+        <v>0.3432052189949708</v>
+      </c>
+      <c r="F60">
+        <v>49.40660441312323</v>
+      </c>
+      <c r="G60">
+        <v>0.8856080640187819</v>
+      </c>
+      <c r="H60">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I60">
+        <v>0.5561487731392749</v>
+      </c>
+      <c r="J60">
+        <v>0.01163253755242567</v>
+      </c>
+      <c r="K60">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L60">
+        <v>0.6576027631674842</v>
+      </c>
+      <c r="M60">
+        <v>0.1316597909100962</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61">
+        <v>29.45853852100859</v>
+      </c>
+      <c r="D61">
+        <v>0.03055596739658585</v>
+      </c>
+      <c r="E61">
+        <v>0.3354355791156783</v>
+      </c>
+      <c r="F61">
+        <v>51.02257367760235</v>
+      </c>
+      <c r="G61">
+        <v>0.8733790972240277</v>
+      </c>
+      <c r="H61">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I61">
+        <v>0.5267622003388051</v>
+      </c>
+      <c r="J61">
+        <v>0.06385729069695469</v>
+      </c>
+      <c r="K61">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L61">
+        <v>0.6572884083971595</v>
+      </c>
+      <c r="M61">
+        <v>0.1311188219945404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62">
+        <v>30.11151292119508</v>
+      </c>
+      <c r="D62">
+        <v>0.0296814980258806</v>
+      </c>
+      <c r="E62">
+        <v>0.3537046271515969</v>
+      </c>
+      <c r="F62">
+        <v>52.15346242825395</v>
+      </c>
+      <c r="G62">
+        <v>0.8667834076792369</v>
+      </c>
+      <c r="H62">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I62">
+        <v>0.5119119074330514</v>
+      </c>
+      <c r="J62">
+        <v>0.09024869354589583</v>
+      </c>
+      <c r="K62">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L62">
+        <v>0.6896298572332487</v>
+      </c>
+      <c r="M62">
+        <v>0.1867747882974932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63">
+        <v>29.08975720850718</v>
+      </c>
+      <c r="D63">
+        <v>0.02894456428294626</v>
+      </c>
+      <c r="E63">
+        <v>0.3638034262623243</v>
+      </c>
+      <c r="F63">
+        <v>50.38361571611276</v>
+      </c>
+      <c r="G63">
+        <v>0.8685832209319536</v>
+      </c>
+      <c r="H63">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I63">
+        <v>0.5494574518242827</v>
+      </c>
+      <c r="J63">
+        <v>0.02352411151237394</v>
+      </c>
+      <c r="K63">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L63">
+        <v>0.6550857315973033</v>
+      </c>
+      <c r="M63">
+        <v>0.1273282649799055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64">
+        <v>28.46841316028248</v>
+      </c>
+      <c r="D64">
+        <v>0.02767865250132468</v>
+      </c>
+      <c r="E64">
+        <v>0.3293495415752298</v>
+      </c>
+      <c r="F64">
+        <v>49.30763030571732</v>
+      </c>
+      <c r="G64">
+        <v>0.8828931781251378</v>
+      </c>
+      <c r="H64">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I64">
+        <v>0.5835665207011079</v>
+      </c>
+      <c r="J64">
+        <v>0.03709329066572052</v>
+      </c>
+      <c r="K64">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L64">
+        <v>0.6358964957551749</v>
+      </c>
+      <c r="M64">
+        <v>0.09430576593165135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65">
+        <v>27.99244698971175</v>
+      </c>
+      <c r="D65">
+        <v>0.02799551491436816</v>
+      </c>
+      <c r="E65">
+        <v>0.3341793416525479</v>
+      </c>
+      <c r="F65">
+        <v>48.48318064890366</v>
+      </c>
+      <c r="G65">
+        <v>0.8827930457579886</v>
+      </c>
+      <c r="H65">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I65">
+        <v>0.5647168720219946</v>
+      </c>
+      <c r="J65">
+        <v>0.003594377546050753</v>
+      </c>
+      <c r="K65">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L65">
+        <v>0.6404567101239061</v>
+      </c>
+      <c r="M65">
+        <v>0.1021533777849933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66">
+        <v>29.90045955881778</v>
+      </c>
+      <c r="D66">
+        <v>0.0264274743280299</v>
+      </c>
+      <c r="E66">
+        <v>0.3218132644948739</v>
+      </c>
+      <c r="F66">
+        <v>51.78810851244609</v>
+      </c>
+      <c r="G66">
+        <v>0.8813440715487896</v>
+      </c>
+      <c r="H66">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I66">
+        <v>0.5352795796519848</v>
+      </c>
+      <c r="J66">
+        <v>0.04872051258099765</v>
+      </c>
+      <c r="K66">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L66">
+        <v>0.6691813671343639</v>
+      </c>
+      <c r="M66">
+        <v>0.1515852554581409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67">
+        <v>27.99150719120051</v>
+      </c>
+      <c r="D67">
+        <v>0.02749355240521321</v>
+      </c>
+      <c r="E67">
+        <v>0.326642067271383</v>
+      </c>
+      <c r="F67">
+        <v>48.48160448633642</v>
+      </c>
+      <c r="G67">
+        <v>0.8856231468686732</v>
+      </c>
+      <c r="H67">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I67">
+        <v>0.6287080837024185</v>
+      </c>
+      <c r="J67">
+        <v>0.1173172419345107</v>
+      </c>
+      <c r="K67">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L67">
+        <v>0.591436042843738</v>
+      </c>
+      <c r="M67">
+        <v>0.01779436776906413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>29.10739443460168</v>
+      </c>
+      <c r="D68">
+        <v>0.02550104896917376</v>
+      </c>
+      <c r="E68">
+        <v>0.3269790422290554</v>
+      </c>
+      <c r="F68">
+        <v>50.4144192341525</v>
+      </c>
+      <c r="G68">
+        <v>0.8840669497341316</v>
+      </c>
+      <c r="H68">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I68">
+        <v>0.5384405323683419</v>
+      </c>
+      <c r="J68">
+        <v>0.04310298186606387</v>
+      </c>
+      <c r="K68">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L68">
+        <v>0.6846055529818794</v>
+      </c>
+      <c r="M68">
+        <v>0.1781285303785236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69">
+        <v>28.65445455488226</v>
+      </c>
+      <c r="D69">
+        <v>0.0357245888505438</v>
+      </c>
+      <c r="E69">
+        <v>0.3313871931776522</v>
+      </c>
+      <c r="F69">
+        <v>49.6298519421062</v>
+      </c>
+      <c r="G69">
+        <v>0.8690906754842995</v>
+      </c>
+      <c r="H69">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I69">
+        <v>0.5542146854485558</v>
+      </c>
+      <c r="J69">
+        <v>0.01506972816643505</v>
+      </c>
+      <c r="K69">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L69">
+        <v>0.6522343827435256</v>
+      </c>
+      <c r="M69">
+        <v>0.1224214169123344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>28.49520407967593</v>
+      </c>
+      <c r="D70">
+        <v>0.02114390741874283</v>
+      </c>
+      <c r="E70">
+        <v>0.3286754022876305</v>
+      </c>
+      <c r="F70">
+        <v>49.35404230701118</v>
+      </c>
+      <c r="G70">
+        <v>0.8908334583604084</v>
+      </c>
+      <c r="H70">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I70">
+        <v>0.5825250534379756</v>
+      </c>
+      <c r="J70">
+        <v>0.03524243275539195</v>
+      </c>
+      <c r="K70">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L70">
+        <v>0.6217996247550704</v>
+      </c>
+      <c r="M70">
+        <v>0.07004664936160462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71">
+        <v>28.7004025793351</v>
+      </c>
+      <c r="D71">
+        <v>0.02788226216475058</v>
+      </c>
+      <c r="E71">
+        <v>0.3194109394626305</v>
+      </c>
+      <c r="F71">
+        <v>49.70952146097286</v>
+      </c>
+      <c r="G71">
+        <v>0.884542662560586</v>
+      </c>
+      <c r="H71">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I71">
+        <v>0.5443025747292376</v>
+      </c>
+      <c r="J71">
+        <v>0.03268517243659355</v>
+      </c>
+      <c r="K71">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L71">
+        <v>0.6646457066899439</v>
+      </c>
+      <c r="M71">
+        <v>0.1437798981244092</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72">
+        <v>29.72059940212474</v>
+      </c>
+      <c r="D72">
+        <v>0.02471136050646434</v>
+      </c>
+      <c r="E72">
+        <v>0.3473366355572225</v>
+      </c>
+      <c r="F72">
+        <v>51.47641045250722</v>
+      </c>
+      <c r="G72">
+        <v>0.8768417129117769</v>
+      </c>
+      <c r="H72">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I72">
+        <v>0.5348845939616304</v>
+      </c>
+      <c r="J72">
+        <v>0.04942246684815373</v>
+      </c>
+      <c r="K72">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L72">
+        <v>0.6574201835756217</v>
+      </c>
+      <c r="M72">
+        <v>0.131345592134902</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>28.58757941159364</v>
+      </c>
+      <c r="D73">
+        <v>0.02455747945747492</v>
+      </c>
+      <c r="E73">
+        <v>0.3288104492497502</v>
+      </c>
+      <c r="F73">
+        <v>49.51404215433417</v>
+      </c>
+      <c r="G73">
+        <v>0.8866225201943728</v>
+      </c>
+      <c r="H73">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I73">
+        <v>0.5650024569177876</v>
+      </c>
+      <c r="J73">
+        <v>0.004101908682323882</v>
+      </c>
+      <c r="K73">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L73">
+        <v>0.6515935816330809</v>
+      </c>
+      <c r="M73">
+        <v>0.1213186708606482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74">
+        <v>29.90774713412343</v>
+      </c>
+      <c r="D74">
+        <v>0.0308337077558914</v>
+      </c>
+      <c r="E74">
+        <v>0.3284837595920245</v>
+      </c>
+      <c r="F74">
+        <v>51.80068690295671</v>
+      </c>
+      <c r="G74">
+        <v>0.8732457095639887</v>
+      </c>
+      <c r="H74">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I74">
+        <v>0.5309929120912122</v>
+      </c>
+      <c r="J74">
+        <v>0.0563386229572586</v>
+      </c>
+      <c r="K74">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L74">
+        <v>0.6921278264670951</v>
+      </c>
+      <c r="M74">
+        <v>0.1910735101082996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>29.14697843752103</v>
+      </c>
+      <c r="D75">
+        <v>0.02237468010243228</v>
+      </c>
+      <c r="E75">
+        <v>0.3374293770323842</v>
+      </c>
+      <c r="F75">
+        <v>50.48291490099555</v>
+      </c>
+      <c r="G75">
+        <v>0.8846157585861197</v>
+      </c>
+      <c r="H75">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I75">
+        <v>0.5247953963024363</v>
+      </c>
+      <c r="J75">
+        <v>0.06735262361585083</v>
+      </c>
+      <c r="K75">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L75">
+        <v>0.6641533180840831</v>
+      </c>
+      <c r="M75">
+        <v>0.1429325531648609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76">
+        <v>30.53524323654565</v>
+      </c>
+      <c r="D76">
+        <v>0.03120298036968487</v>
+      </c>
+      <c r="E76">
+        <v>0.3403673186020572</v>
+      </c>
+      <c r="F76">
+        <v>52.88748826525481</v>
+      </c>
+      <c r="G76">
+        <v>0.866848694039163</v>
+      </c>
+      <c r="H76">
+        <v>0.5626943361349014</v>
+      </c>
+      <c r="I76">
+        <v>0.5106798575996104</v>
+      </c>
+      <c r="J76">
+        <v>0.09243824789951485</v>
+      </c>
+      <c r="K76">
+        <v>0.5810958102864388</v>
+      </c>
+      <c r="L76">
+        <v>0.6811023828084208</v>
+      </c>
+      <c r="M76">
+        <v>0.1720999717287343</v>
       </c>
     </row>
   </sheetData>
